--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6686658506731945</v>
+        <v>0.906609547123623</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6341463414634148</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2354957160342717</v>
+        <v>0.967686658506732</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4710594315245478</v>
+        <v>0.8664082687338501</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4242894056847545</v>
+        <v>0.8547803617571059</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07692307692307691</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.403359173126615</v>
+        <v>0.6917312661498708</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01</v>
+        <v>0.3794063079777366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3058479532163743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01538461538461538</v>
+        <v>0.2361171939892774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4405739154086767</v>
+        <v>0.8574432204542364</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E2" t="n">
-        <v>0.906609547123623</v>
+        <v>0.8885054021608644</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6341463414634148</v>
+        <v>0.3478260869565218</v>
       </c>
       <c r="E3" t="n">
-        <v>0.967686658506732</v>
+        <v>0.2872148859543818</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8664082687338501</v>
+        <v>0.1656108597285068</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8547803617571059</v>
+        <v>0.579788838612368</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6917312661498708</v>
+        <v>0.7408748114630468</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3794063079777366</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3058479532163743</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2361171939892774</v>
+        <v>0.1385307346326837</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8574432204542364</v>
+        <v>0.5323989595838337</v>
       </c>
     </row>
   </sheetData>
